--- a/result/output_metadiscourse_analysis_3.xlsx
+++ b/result/output_metadiscourse_analysis_3.xlsx
@@ -497,7 +497,7 @@
     "expression": "This thesis aims to",
     "confidence": 5,
     "note": "",
-    "justification": "This phrase is a frame marker that announces the goal of the thesis, thus organizing the discourse."
+    "justification": "The phrase 'This thesis aims to' is a frame marker that announces the goal of the thesis, thus organizing the discourse."
   }</t>
         </is>
       </c>
@@ -531,26 +531,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[
-  {
+          <t>{
     "expression": "Specifically,",
     "confidence": 5,
     "note": "",
-    "justification": "The expression 'Specifically,' is used to organize the discourse and guide the reader's attention to a particular aspect of the study."
+    "justification": "The term 'specifically' is used to focus the reader's attention on a particular aspect of the study, thus organizing the discourse."
   },
   {
     "expression": "demonstrates",
     "confidence": 4,
     "note": "",
-    "justification": "The term 'demonstrates' is used as a booster to emphasize the certainty of the findings of the study."
+    "justification": "The term 'demonstrates' is used to assert a claim with confidence, positioning the writer as an authority on the subject."
   },
   {
     "expression": "thus",
     "confidence": 5,
     "note": "",
-    "justification": "The term 'thus' is used as a logical connective to link the findings of the study to the concept of a 'repertoire of registers'."
-  }
-]</t>
+    "justification": "The term 'thus' is used to indicate a logical connection or consequence, helping to organize the discourse."
+  }</t>
         </is>
       </c>
     </row>
